--- a/data/calibration_data.xlsx
+++ b/data/calibration_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\3d-scanner\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olincollege-my.sharepoint.com/personal/rburdette_olin_edu/Documents/PIE/3d-scanner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66555DF6-F73B-4E2A-8724-AFE73C361F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{66555DF6-F73B-4E2A-8724-AFE73C361F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AF8A2A8-8228-4C39-8E0F-BC762DAED221}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{3771D754-33C7-4F3B-8441-9DDF673415DA}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{3771D754-33C7-4F3B-8441-9DDF673415DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>distance</t>
   </si>
   <si>
-    <t>voltage</t>
+    <t>analog</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4204BBA6-C579-42C7-8734-BC907F3AE3FA}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>1.0900000000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,16 +452,16 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1.1299999999999999</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A4:A25" si="0">SUM(A4,-1)</f>
+        <f t="shared" ref="A5:A25" si="0">SUM(A4,-1)</f>
         <v>21</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.21</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1.31</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>1.33</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.36</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>1.37</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1.54</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>1.62</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.74</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.82</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>1.94</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>2.06</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>2.25</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>2.2999999999999998</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>2.5499999999999998</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>2.71</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>2.87</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>2.6</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>1.82</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>1.22</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1.1000000000000001</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>0.92</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
